--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H2">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I2">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J2">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>578.5802806159081</v>
+        <v>320.9478590796211</v>
       </c>
       <c r="R2">
-        <v>5207.222525543173</v>
+        <v>2888.53073171659</v>
       </c>
       <c r="S2">
-        <v>0.3942768733955203</v>
+        <v>0.4718008601507785</v>
       </c>
       <c r="T2">
-        <v>0.3942768733955203</v>
+        <v>0.4718008601507785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H3">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I3">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J3">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>55.57975998207067</v>
+        <v>44.71043551434267</v>
       </c>
       <c r="R3">
-        <v>500.217839838636</v>
+        <v>402.3939196290841</v>
       </c>
       <c r="S3">
-        <v>0.03787514840028194</v>
+        <v>0.06572538602960322</v>
       </c>
       <c r="T3">
-        <v>0.03787514840028193</v>
+        <v>0.06572538602960322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H4">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I4">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J4">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>268.1176174014475</v>
+        <v>191.7217022497227</v>
       </c>
       <c r="R4">
-        <v>2413.058556613027</v>
+        <v>1725.495320247505</v>
       </c>
       <c r="S4">
-        <v>0.1827102986966067</v>
+        <v>0.2818353868768155</v>
       </c>
       <c r="T4">
-        <v>0.1827102986966066</v>
+        <v>0.2818353868768155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H5">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I5">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J5">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>362.4113224352521</v>
+        <v>70.75690976841777</v>
       </c>
       <c r="R5">
-        <v>3261.701901917269</v>
+        <v>636.81218791576</v>
       </c>
       <c r="S5">
-        <v>0.2469672885166391</v>
+        <v>0.1040143124371763</v>
       </c>
       <c r="T5">
-        <v>0.246967288516639</v>
+        <v>0.1040143124371763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H6">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I6">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J6">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
-        <v>34.814069871676</v>
+        <v>9.856966363530667</v>
       </c>
       <c r="R6">
-        <v>313.326628845084</v>
+        <v>88.71269727177601</v>
       </c>
       <c r="S6">
-        <v>0.02372424895740595</v>
+        <v>0.01448997111907001</v>
       </c>
       <c r="T6">
-        <v>0.02372424895740595</v>
+        <v>0.01448997111907001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H7">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I7">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J7">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>167.9436087714737</v>
+        <v>42.26741136592445</v>
       </c>
       <c r="R7">
-        <v>1511.492478943263</v>
+        <v>380.40670229332</v>
       </c>
       <c r="S7">
-        <v>0.114446142033546</v>
+        <v>0.06213408338655646</v>
       </c>
       <c r="T7">
-        <v>0.114446142033546</v>
+        <v>0.06213408338655646</v>
       </c>
     </row>
   </sheetData>
